--- a/test/hello.xlsx
+++ b/test/hello.xlsx
@@ -13,14 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AAA" sheetId="2" r:id="rId2"/>
-    <sheet name="BBB" sheetId="3" r:id="rId3"/>
-    <sheet name="CCC" sheetId="4" r:id="rId4"/>
-    <sheet name="DDD" sheetId="5" r:id="rId5"/>
-    <sheet name="EEE" sheetId="6" r:id="rId6"/>
-    <sheet name="GGG" sheetId="7" r:id="rId7"/>
-    <sheet name="HHH" sheetId="8" r:id="rId8"/>
-    <sheet name="K" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -7182,7 +7174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -7693,16 +7685,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8327,7 +8319,7 @@
   <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O245"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19317,118 +19309,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>